--- a/SchedulingData/dynamic10/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_17.xlsx
@@ -462,235 +462,235 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>81.42</v>
+        <v>53.8</v>
       </c>
       <c r="E2" t="n">
-        <v>27.008</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.88</v>
+        <v>73.7</v>
       </c>
       <c r="E3" t="n">
-        <v>26.612</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>25.32</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.88</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>109.32</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>23.348</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="D6" t="n">
-        <v>65.59999999999999</v>
+        <v>125.02</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.8</v>
+        <v>125.02</v>
       </c>
       <c r="D7" t="n">
-        <v>130.9</v>
+        <v>191.12</v>
       </c>
       <c r="E7" t="n">
-        <v>20.7</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>71.81999999999999</v>
+        <v>148.44</v>
       </c>
       <c r="E8" t="n">
-        <v>25.968</v>
+        <v>22.436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.16</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>26.984</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81.42</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>135.58</v>
+        <v>118.3</v>
       </c>
       <c r="E10" t="n">
-        <v>23.212</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>65.59999999999999</v>
+        <v>118.3</v>
       </c>
       <c r="D11" t="n">
-        <v>119.1</v>
+        <v>173.84</v>
       </c>
       <c r="E11" t="n">
-        <v>22.86</v>
+        <v>17.536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71.81999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="D12" t="n">
-        <v>125.48</v>
+        <v>126.3</v>
       </c>
       <c r="E12" t="n">
-        <v>23.212</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>109.32</v>
+        <v>173.84</v>
       </c>
       <c r="D13" t="n">
-        <v>177.82</v>
+        <v>217.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20.588</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -698,165 +698,165 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>135.58</v>
+        <v>69.04000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>195.88</v>
+        <v>114.64</v>
       </c>
       <c r="E14" t="n">
-        <v>19.292</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47.16</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>96.81999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="E15" t="n">
-        <v>24.128</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125.48</v>
+        <v>148.44</v>
       </c>
       <c r="D16" t="n">
-        <v>185.92</v>
+        <v>185.74</v>
       </c>
       <c r="E16" t="n">
-        <v>18.788</v>
+        <v>19.836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>195.88</v>
+        <v>126.3</v>
       </c>
       <c r="D17" t="n">
-        <v>232.38</v>
+        <v>199.24</v>
       </c>
       <c r="E17" t="n">
-        <v>16.772</v>
+        <v>18.916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>119.1</v>
+        <v>185.74</v>
       </c>
       <c r="D18" t="n">
-        <v>158.56</v>
+        <v>242.14</v>
       </c>
       <c r="E18" t="n">
-        <v>20.044</v>
+        <v>17.316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>158.56</v>
+        <v>114.64</v>
       </c>
       <c r="D19" t="n">
-        <v>221.06</v>
+        <v>173.7</v>
       </c>
       <c r="E19" t="n">
-        <v>15.904</v>
+        <v>19.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>96.81999999999999</v>
+        <v>173.7</v>
       </c>
       <c r="D20" t="n">
-        <v>179.02</v>
+        <v>235.9</v>
       </c>
       <c r="E20" t="n">
-        <v>19.508</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>232.38</v>
+        <v>199.24</v>
       </c>
       <c r="D21" t="n">
-        <v>279.98</v>
+        <v>255.5</v>
       </c>
       <c r="E21" t="n">
-        <v>13.652</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>185.92</v>
+        <v>217.6</v>
       </c>
       <c r="D22" t="n">
-        <v>237.18</v>
+        <v>257.46</v>
       </c>
       <c r="E22" t="n">
-        <v>16.292</v>
+        <v>11.924</v>
       </c>
     </row>
     <row r="23">
@@ -865,150 +865,150 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>130.9</v>
+        <v>235.9</v>
       </c>
       <c r="D23" t="n">
-        <v>187</v>
+        <v>272.46</v>
       </c>
       <c r="E23" t="n">
-        <v>16.22</v>
+        <v>12.884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>221.06</v>
+        <v>87.7</v>
       </c>
       <c r="D24" t="n">
-        <v>274.4</v>
+        <v>141.3</v>
       </c>
       <c r="E24" t="n">
-        <v>12.68</v>
+        <v>22.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>179.02</v>
+        <v>191.12</v>
       </c>
       <c r="D25" t="n">
-        <v>224.32</v>
+        <v>252.18</v>
       </c>
       <c r="E25" t="n">
-        <v>17.088</v>
+        <v>14.312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>224.32</v>
+        <v>252.18</v>
       </c>
       <c r="D26" t="n">
-        <v>265.78</v>
+        <v>317.6</v>
       </c>
       <c r="E26" t="n">
-        <v>14.072</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>187</v>
+        <v>141.3</v>
       </c>
       <c r="D27" t="n">
-        <v>266.6</v>
+        <v>201.48</v>
       </c>
       <c r="E27" t="n">
-        <v>11.36</v>
+        <v>19.232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>177.82</v>
+        <v>272.46</v>
       </c>
       <c r="D28" t="n">
-        <v>229.82</v>
+        <v>326.92</v>
       </c>
       <c r="E28" t="n">
-        <v>17.988</v>
+        <v>10.068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>274.4</v>
+        <v>201.48</v>
       </c>
       <c r="D29" t="n">
-        <v>319.72</v>
+        <v>267.3</v>
       </c>
       <c r="E29" t="n">
-        <v>9.768000000000001</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>266.6</v>
+        <v>255.5</v>
       </c>
       <c r="D30" t="n">
-        <v>329.64</v>
+        <v>291</v>
       </c>
       <c r="E30" t="n">
-        <v>8.656000000000001</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>265.78</v>
+        <v>257.46</v>
       </c>
       <c r="D31" t="n">
-        <v>341.94</v>
+        <v>308.72</v>
       </c>
       <c r="E31" t="n">
-        <v>11.056</v>
+        <v>8.907999999999999</v>
       </c>
     </row>
   </sheetData>
